--- a/assets/Questions_Format.xlsx
+++ b/assets/Questions_Format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\techfest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\techfest\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5A451AE-49B0-4F98-81A5-882F9DA5ED29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BF27BA1C-2A11-4850-94EC-CABE2B8E44CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{8F5ECA5C-63FC-4682-9795-AD8809C4310F}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Option-1 (Currect)</t>
-  </si>
-  <si>
     <t>Option-2 (Wrong)</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>Option-4 (Wrong)</t>
+  </si>
+  <si>
+    <t>Option-1 (Correct)</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,16 +420,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
